--- a/QF-Codes_exam/MVP2-assets.xlsx
+++ b/QF-Codes_exam/MVP2-assets.xlsx
@@ -8,40 +8,95 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkotas/Documents/Documents – Daniel’s MacBook Air/Important /R/cheat-sheet-rmarkdown/Daniel/Exam-CheetSheetsFS21/QF-Codes_exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0364FB-B07E-E74B-AD1C-534C08DAD1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2D390-5E86-AF40-BA6D-90C372A8A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="500" windowWidth="19540" windowHeight="16260" xr2:uid="{CAB25C4D-510A-AE41-9C8C-09F3BD61AFD9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{CAB25C4D-510A-AE41-9C8C-09F3BD61AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP 2 Assets" sheetId="1" r:id="rId1"/>
+    <sheet name="Zero-coupon bods" sheetId="2" r:id="rId2"/>
+    <sheet name="Yield calculator" sheetId="3" r:id="rId3"/>
+    <sheet name="Coupon bonds" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Coupon bonds'!$B$3</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'MVP 2 Assets'!$B$6</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Yield calculator'!$B$2</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Coupon bonds'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'MVP 2 Assets'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Yield calculator'!$B$10</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">102.9</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0.1</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -62,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>MU1</t>
   </si>
@@ -95,14 +150,86 @@
   </si>
   <si>
     <t>Screenshot of the solver. This is how it should look. Not always you will be able to get var=0, but rather set it to "min"</t>
+  </si>
+  <si>
+    <t>Face vaue Ct</t>
+  </si>
+  <si>
+    <t>Discount rate p.a.</t>
+  </si>
+  <si>
+    <t>Number of years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price/Value with </t>
+  </si>
+  <si>
+    <t>Annual compounding</t>
+  </si>
+  <si>
+    <t>Semi-annual</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Continuos</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Lowe than annual compounding have lower price/value, because not the interest, but the DISCOUNT RATE is coumponding more often.</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>Yield/discount rate</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Semin annual</t>
+  </si>
+  <si>
+    <t>Conitnuous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,16 +266,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A0E718-C025-0B4E-BA1A-88B7631E63FF}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -614,4 +746,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612C1F85-4DCF-5848-848E-640EE4FE9E6C}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>B2/(1+B3)^B1</f>
+        <v>55.839477691511789</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>B2/((1+(B3/2))^(2*B1))</f>
+        <v>55.3675754186335</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f>B2/((1+B3/4)^(4*B1))</f>
+        <v>55.126232193738453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>B2/EXP(B3*B1)</f>
+        <v>54.881163609402648</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE98A583-98C3-B84E-B6B5-0B2F560F4325}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>36.78793136662155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <f>($B$1/$B$2)^(1/$B$3*C7)-1</f>
+        <v>0.10517095638034202</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <f>(($B$1/$B$2)^(1/($B$3*C8))-1)*C8</f>
+        <v>0.10254222918860023</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <f>(($B$1/$B$2)^(1/($B$3*C9))-1)*C9</f>
+        <v>0.10126051763464528</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <f>LN(B1/B2)/B3</f>
+        <v>0.10000003465952012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740B15CF-82BC-3249-8858-E07531F17412}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.49549539337314E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>($B$1/$B$3)*(1-(1/(1+$B$3/C7)^$B$4*C7))+$B$2/(1+$B$3/C7)^$B$4*C7</f>
+        <v>102.90000889966109</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B9" si="0">($B$1/$B$3)*(1-(1/(1+$B$3/C8)^$B$4*C8))+$B$2/(1+$B$3/C8)^$B$4*C8</f>
+        <v>42.664799257162002</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-77.885362670841459</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <f>($B$1/$B$3)*(1-(1/EXP(B3*B4)))+$B$2/EXP(B3*B4)</f>
+        <v>102.93515333367297</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QF-Codes_exam/MVP2-assets.xlsx
+++ b/QF-Codes_exam/MVP2-assets.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkotas/Documents/Documents – Daniel’s MacBook Air/Important /R/cheat-sheet-rmarkdown/Daniel/Exam-CheetSheetsFS21/QF-Codes_exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2D390-5E86-AF40-BA6D-90C372A8A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A4E2B-0217-CC46-9454-45792297D37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{CAB25C4D-510A-AE41-9C8C-09F3BD61AFD9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{CAB25C4D-510A-AE41-9C8C-09F3BD61AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MVP 2 Assets" sheetId="1" r:id="rId1"/>
     <sheet name="Zero-coupon bods" sheetId="2" r:id="rId2"/>
     <sheet name="Yield calculator" sheetId="3" r:id="rId3"/>
     <sheet name="Coupon bonds" sheetId="4" r:id="rId4"/>
+    <sheet name="Durations" sheetId="6" r:id="rId5"/>
+    <sheet name="Price Change" sheetId="7" r:id="rId6"/>
+    <sheet name="Zero-coupon dur  convexity" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Coupon bonds'!$B$3</definedName>
@@ -98,7 +101,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>MU1</t>
   </si>
@@ -179,9 +182,6 @@
     <t>Yield</t>
   </si>
   <si>
-    <t>Lowe than annual compounding have lower price/value, because not the interest, but the DISCOUNT RATE is coumponding more often.</t>
-  </si>
-  <si>
     <t>FV</t>
   </si>
   <si>
@@ -207,13 +207,58 @@
   </si>
   <si>
     <t>Conitnuous</t>
+  </si>
+  <si>
+    <t>Coupon Rate</t>
+  </si>
+  <si>
+    <t>Settlement Date</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Macculay duration</t>
+  </si>
+  <si>
+    <t>Mod. Duration</t>
+  </si>
+  <si>
+    <t>Maturity Date</t>
+  </si>
+  <si>
+    <t>&lt;- Change this number maturity in years</t>
+  </si>
+  <si>
+    <t>DVBP</t>
+  </si>
+  <si>
+    <t>Convexity</t>
+  </si>
+  <si>
+    <t>Mod Duration</t>
+  </si>
+  <si>
+    <t>Price0</t>
+  </si>
+  <si>
+    <t>Yield Delta</t>
+  </si>
+  <si>
+    <t>Price Change</t>
+  </si>
+  <si>
+    <t>Lower than annual compounding have lower price/value, because not the interest, but the DISCOUNT RATE is coumponding more often.</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +277,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,13 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +883,7 @@
         <v>54.881163609402648</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +896,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>100</v>
@@ -863,7 +917,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>36.78793136662155</v>
@@ -890,7 +944,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <f>($B$1/$B$2)^(1/$B$3*C7)-1</f>
@@ -926,7 +980,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <f>LN(B1/B2)/B3</f>
@@ -942,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740B15CF-82BC-3249-8858-E07531F17412}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,7 +1007,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -961,7 +1015,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -969,7 +1023,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5">
         <v>2.49549539337314E-2</v>
@@ -977,7 +1031,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -985,7 +1039,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <f>($B$1/$B$3)*(1-(1/(1+$B$3/C7)^$B$4*C7))+$B$2/(1+$B$3/C7)^$B$4*C7</f>
@@ -997,7 +1051,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B9" si="0">($B$1/$B$3)*(1-(1/(1+$B$3/C8)^$B$4*C8))+$B$2/(1+$B$3/C8)^$B$4*C8</f>
@@ -1021,14 +1075,216 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <f>($B$1/$B$3)*(1-(1/EXP(B3*B4)))+$B$2/EXP(B3*B4)</f>
         <v>102.93515333367297</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BE1FCE-26E4-B348-8BAD-2B5B850F1F92}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
+        <f>DATE(2018,1,1)</f>
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6">
+        <f>DATE(2018+C3,1,1)</f>
+        <v>44197</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>DURATION(B2,B3,B1,B4,B5)</f>
+        <v>2.9424817226443096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>MDURATION(B2,B3,B1,B4,B5)</f>
+        <v>2.9133482402418909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <f>B8*0.0001</f>
+        <v>2.9133482402418908E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77030DEC-D002-DE4D-8D41-303358E6E9C7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f>-1*B1*B3*B4+0.5*B2*B3*B4^2</f>
+        <v>-0.69750000000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6B995E-9710-D04D-AD21-125EF208AA03}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <f>B1/(1+B2)</f>
+        <v>4.6296296296296298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <f>((1+B1)*B1)/((1+B2)^2)</f>
+        <v>25.720164609053494</v>
       </c>
     </row>
   </sheetData>

--- a/QF-Codes_exam/MVP2-assets.xlsx
+++ b/QF-Codes_exam/MVP2-assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkotas/Documents/Documents – Daniel’s MacBook Air/Important /R/cheat-sheet-rmarkdown/Daniel/Exam-CheetSheetsFS21/QF-Codes_exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679A4E2B-0217-CC46-9454-45792297D37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F6C2B-BCDB-3541-B299-9F052605773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{CAB25C4D-510A-AE41-9C8C-09F3BD61AFD9}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
